--- a/Tools/AutoSentChatroom/AutoSentChatroom.xlsx
+++ b/Tools/AutoSentChatroom/AutoSentChatroom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\test\study\lytest\case\self\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\test\study\Tools\AutoSentChatroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Chatrooms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>群名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>我们仨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10点了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在时间10:10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在时间10:15:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,12 +97,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,15 +390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -399,10 +418,32 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>43066.875</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
+        <v>43067.416666666664</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43067.423611111109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43067.427083333336</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/AutoSentChatroom/AutoSentChatroom.xlsx
+++ b/Tools/AutoSentChatroom/AutoSentChatroom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>群名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>现在时间10:15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lizhi.fm/3637907/2638319793024067078</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +73,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -92,12 +105,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -110,9 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,16 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -446,8 +466,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43067.445833333331</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>